--- a/data/excel/cpi2008.xlsx
+++ b/data/excel/cpi2008.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t>Denmark</t>
   </si>
@@ -573,6 +573,9 @@
   </si>
   <si>
     <t>CPI</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -890,15 +893,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C181"/>
+  <dimension ref="A1:D181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="D176" sqref="D176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>180</v>
       </c>
@@ -908,8 +911,11 @@
       <c r="C1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -919,8 +925,11 @@
       <c r="C2">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -930,8 +939,11 @@
       <c r="C3">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -941,8 +953,11 @@
       <c r="C4">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -952,8 +967,11 @@
       <c r="C5">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -963,8 +981,11 @@
       <c r="C6">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -974,8 +995,11 @@
       <c r="C7">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -985,8 +1009,11 @@
       <c r="C8">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -996,8 +1023,11 @@
       <c r="C9">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1007,8 +1037,11 @@
       <c r="C10">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1018,8 +1051,11 @@
       <c r="C11">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1029,8 +1065,11 @@
       <c r="C12">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1040,8 +1079,11 @@
       <c r="C13">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1051,8 +1093,11 @@
       <c r="C14">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1062,8 +1107,11 @@
       <c r="C15">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1073,8 +1121,11 @@
       <c r="C16">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1084,8 +1135,11 @@
       <c r="C17">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1095,8 +1149,11 @@
       <c r="C18">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1106,8 +1163,11 @@
       <c r="C19">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1117,8 +1177,11 @@
       <c r="C20">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1128,8 +1191,11 @@
       <c r="C21">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1139,8 +1205,11 @@
       <c r="C22">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1150,8 +1219,11 @@
       <c r="C23">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1161,8 +1233,11 @@
       <c r="C24">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1172,8 +1247,11 @@
       <c r="C25">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1183,8 +1261,11 @@
       <c r="C26">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1194,8 +1275,11 @@
       <c r="C27">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1205,8 +1289,11 @@
       <c r="C28">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1216,8 +1303,11 @@
       <c r="C29">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1227,8 +1317,11 @@
       <c r="C30">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
@@ -1238,8 +1331,11 @@
       <c r="C31">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1249,8 +1345,11 @@
       <c r="C32">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1260,8 +1359,11 @@
       <c r="C33">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1271,8 +1373,11 @@
       <c r="C34">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1282,8 +1387,11 @@
       <c r="C35">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1293,8 +1401,11 @@
       <c r="C36">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1304,8 +1415,11 @@
       <c r="C37">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1315,8 +1429,11 @@
       <c r="C38">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>36</v>
       </c>
@@ -1326,8 +1443,11 @@
       <c r="C39">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1337,8 +1457,11 @@
       <c r="C40">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1348,8 +1471,11 @@
       <c r="C41">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1359,8 +1485,11 @@
       <c r="C42">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1370,8 +1499,11 @@
       <c r="C43">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1381,8 +1513,11 @@
       <c r="C44">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1392,8 +1527,11 @@
       <c r="C45">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1403,8 +1541,11 @@
       <c r="C46">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1414,8 +1555,11 @@
       <c r="C47">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1425,8 +1569,11 @@
       <c r="C48">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1436,8 +1583,11 @@
       <c r="C49">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>47</v>
       </c>
@@ -1447,8 +1597,11 @@
       <c r="C50">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>47</v>
       </c>
@@ -1458,8 +1611,11 @@
       <c r="C51">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>47</v>
       </c>
@@ -1469,8 +1625,11 @@
       <c r="C52">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1480,8 +1639,11 @@
       <c r="C53">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1491,8 +1653,11 @@
       <c r="C54">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1502,8 +1667,11 @@
       <c r="C55">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1513,8 +1681,11 @@
       <c r="C56">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1524,8 +1695,11 @@
       <c r="C57">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1535,8 +1709,11 @@
       <c r="C58">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1546,8 +1723,11 @@
       <c r="C59">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1557,8 +1737,11 @@
       <c r="C60">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>58</v>
       </c>
@@ -1568,8 +1751,11 @@
       <c r="C61">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1579,8 +1765,11 @@
       <c r="C62">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1590,8 +1779,11 @@
       <c r="C63">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1601,8 +1793,11 @@
       <c r="C64">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>62</v>
       </c>
@@ -1612,8 +1807,11 @@
       <c r="C65">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1623,8 +1821,11 @@
       <c r="C66">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1634,8 +1835,11 @@
       <c r="C67">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1645,8 +1849,11 @@
       <c r="C68">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -1656,8 +1863,11 @@
       <c r="C69">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>67</v>
       </c>
@@ -1667,8 +1877,11 @@
       <c r="C70">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1678,8 +1891,11 @@
       <c r="C71">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1689,8 +1905,11 @@
       <c r="C72">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1700,8 +1919,11 @@
       <c r="C73">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1711,8 +1933,11 @@
       <c r="C74">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>72</v>
       </c>
@@ -1722,8 +1947,11 @@
       <c r="C75">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>72</v>
       </c>
@@ -1733,8 +1961,11 @@
       <c r="C76">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>72</v>
       </c>
@@ -1744,8 +1975,11 @@
       <c r="C77">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>72</v>
       </c>
@@ -1755,8 +1989,11 @@
       <c r="C78">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>72</v>
       </c>
@@ -1766,8 +2003,11 @@
       <c r="C79">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>72</v>
       </c>
@@ -1777,8 +2017,11 @@
       <c r="C80">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1788,8 +2031,11 @@
       <c r="C81">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -1799,8 +2045,11 @@
       <c r="C82">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>80</v>
       </c>
@@ -1810,8 +2059,11 @@
       <c r="C83">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>80</v>
       </c>
@@ -1821,8 +2073,11 @@
       <c r="C84">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>80</v>
       </c>
@@ -1832,8 +2087,11 @@
       <c r="C85">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1843,8 +2101,11 @@
       <c r="C86">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -1854,8 +2115,11 @@
       <c r="C87">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>85</v>
       </c>
@@ -1865,8 +2129,11 @@
       <c r="C88">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>85</v>
       </c>
@@ -1876,8 +2143,11 @@
       <c r="C89">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>85</v>
       </c>
@@ -1887,8 +2157,11 @@
       <c r="C90">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>85</v>
       </c>
@@ -1898,8 +2171,11 @@
       <c r="C91">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>85</v>
       </c>
@@ -1909,8 +2185,11 @@
       <c r="C92">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -1920,8 +2199,11 @@
       <c r="C93">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -1931,8 +2213,11 @@
       <c r="C94">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>92</v>
       </c>
@@ -1942,8 +2227,11 @@
       <c r="C95">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>92</v>
       </c>
@@ -1953,8 +2241,11 @@
       <c r="C96">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -1964,8 +2255,11 @@
       <c r="C97">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -1975,8 +2269,11 @@
       <c r="C98">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>96</v>
       </c>
@@ -1986,8 +2283,11 @@
       <c r="C99">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>96</v>
       </c>
@@ -1997,8 +2297,11 @@
       <c r="C100">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>96</v>
       </c>
@@ -2008,8 +2311,11 @@
       <c r="C101">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>96</v>
       </c>
@@ -2019,8 +2325,11 @@
       <c r="C102">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2030,8 +2339,11 @@
       <c r="C103">
         <v>3</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -2041,8 +2353,11 @@
       <c r="C104">
         <v>3</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>102</v>
       </c>
@@ -2052,8 +2367,11 @@
       <c r="C105">
         <v>3</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>102</v>
       </c>
@@ -2063,8 +2381,11 @@
       <c r="C106">
         <v>3</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>102</v>
       </c>
@@ -2074,8 +2395,11 @@
       <c r="C107">
         <v>3</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>102</v>
       </c>
@@ -2085,8 +2409,11 @@
       <c r="C108">
         <v>3</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>102</v>
       </c>
@@ -2096,8 +2423,11 @@
       <c r="C109">
         <v>3</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2107,8 +2437,11 @@
       <c r="C110">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -2118,8 +2451,11 @@
       <c r="C111">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>109</v>
       </c>
@@ -2129,8 +2465,11 @@
       <c r="C112">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>109</v>
       </c>
@@ -2140,8 +2479,11 @@
       <c r="C113">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>109</v>
       </c>
@@ -2151,8 +2493,11 @@
       <c r="C114">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>109</v>
       </c>
@@ -2162,8 +2507,11 @@
       <c r="C115">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -2173,8 +2521,11 @@
       <c r="C116">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -2184,8 +2535,11 @@
       <c r="C117">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>115</v>
       </c>
@@ -2195,8 +2549,11 @@
       <c r="C118">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>115</v>
       </c>
@@ -2206,8 +2563,11 @@
       <c r="C119">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>115</v>
       </c>
@@ -2217,8 +2577,11 @@
       <c r="C120">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>115</v>
       </c>
@@ -2228,8 +2591,11 @@
       <c r="C121">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -2239,8 +2605,11 @@
       <c r="C122">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -2250,8 +2619,11 @@
       <c r="C123">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>121</v>
       </c>
@@ -2261,8 +2633,11 @@
       <c r="C124">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>121</v>
       </c>
@@ -2272,8 +2647,11 @@
       <c r="C125">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>121</v>
       </c>
@@ -2283,8 +2661,11 @@
       <c r="C126">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -2294,8 +2675,11 @@
       <c r="C127">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -2305,8 +2689,11 @@
       <c r="C128">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>126</v>
       </c>
@@ -2316,8 +2703,11 @@
       <c r="C129">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>126</v>
       </c>
@@ -2327,8 +2717,11 @@
       <c r="C130">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>126</v>
       </c>
@@ -2338,8 +2731,11 @@
       <c r="C131">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>126</v>
       </c>
@@ -2349,8 +2745,11 @@
       <c r="C132">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>126</v>
       </c>
@@ -2360,8 +2759,11 @@
       <c r="C133">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>126</v>
       </c>
@@ -2371,8 +2773,11 @@
       <c r="C134">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -2382,8 +2787,11 @@
       <c r="C135">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -2393,8 +2801,11 @@
       <c r="C136">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>134</v>
       </c>
@@ -2404,8 +2815,11 @@
       <c r="C137">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>134</v>
       </c>
@@ -2415,8 +2829,11 @@
       <c r="C138">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -2426,8 +2843,11 @@
       <c r="C139">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -2437,8 +2857,11 @@
       <c r="C140">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>138</v>
       </c>
@@ -2448,8 +2871,11 @@
       <c r="C141">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -2459,8 +2885,11 @@
       <c r="C142">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -2470,8 +2899,11 @@
       <c r="C143">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>141</v>
       </c>
@@ -2481,8 +2913,11 @@
       <c r="C144">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>141</v>
       </c>
@@ -2492,8 +2927,11 @@
       <c r="C145">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -2503,8 +2941,11 @@
       <c r="C146">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
@@ -2514,8 +2955,11 @@
       <c r="C147">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -2525,8 +2969,11 @@
       <c r="C148">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
@@ -2536,8 +2983,11 @@
       <c r="C149">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>147</v>
       </c>
@@ -2547,8 +2997,11 @@
       <c r="C150">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>147</v>
       </c>
@@ -2558,8 +3011,11 @@
       <c r="C151">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -2569,8 +3025,11 @@
       <c r="C152">
         <v>2</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
@@ -2580,8 +3039,11 @@
       <c r="C153">
         <v>2</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>151</v>
       </c>
@@ -2591,8 +3053,11 @@
       <c r="C154">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>151</v>
       </c>
@@ -2602,8 +3067,11 @@
       <c r="C155">
         <v>2</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>151</v>
       </c>
@@ -2613,8 +3081,11 @@
       <c r="C156">
         <v>2</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>151</v>
       </c>
@@ -2624,8 +3095,11 @@
       <c r="C157">
         <v>2</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>151</v>
       </c>
@@ -2635,8 +3109,11 @@
       <c r="C158">
         <v>2</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -2646,8 +3123,11 @@
       <c r="C159">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
@@ -2657,8 +3137,11 @@
       <c r="C160">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>158</v>
       </c>
@@ -2668,8 +3151,11 @@
       <c r="C161">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>158</v>
       </c>
@@ -2679,8 +3165,11 @@
       <c r="C162">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>158</v>
       </c>
@@ -2690,8 +3179,11 @@
       <c r="C163">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>158</v>
       </c>
@@ -2701,8 +3193,11 @@
       <c r="C164">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>158</v>
       </c>
@@ -2712,8 +3207,11 @@
       <c r="C165">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>158</v>
       </c>
@@ -2723,8 +3221,11 @@
       <c r="C166">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -2734,8 +3235,11 @@
       <c r="C167">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
@@ -2745,8 +3249,11 @@
       <c r="C168">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>166</v>
       </c>
@@ -2756,8 +3263,11 @@
       <c r="C169">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>166</v>
       </c>
@@ -2767,8 +3277,11 @@
       <c r="C170">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>166</v>
       </c>
@@ -2778,8 +3291,11 @@
       <c r="C171">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -2789,8 +3305,11 @@
       <c r="C172">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
@@ -2800,8 +3319,11 @@
       <c r="C173">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -2811,8 +3333,11 @@
       <c r="C174">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
@@ -2822,8 +3347,11 @@
       <c r="C175">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>173</v>
       </c>
@@ -2833,8 +3361,11 @@
       <c r="C176">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -2844,8 +3375,11 @@
       <c r="C177">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -2855,8 +3389,11 @@
       <c r="C178">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -2866,8 +3403,11 @@
       <c r="C179">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>178</v>
       </c>
@@ -2877,8 +3417,11 @@
       <c r="C180">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -2887,6 +3430,9 @@
       </c>
       <c r="C181">
         <v>1</v>
+      </c>
+      <c r="D181">
+        <v>2008</v>
       </c>
     </row>
   </sheetData>
